--- a/Specification file/銀行/個金行銷部/華南銀行-個金行銷部-房貸API欄位輸出文件_v2.xlsx
+++ b/Specification file/銀行/個金行銷部/華南銀行-個金行銷部-房貸API欄位輸出文件_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2235" windowWidth="38400" windowHeight="23535" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="2235" windowWidth="38400" windowHeight="23535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="房貸申請客戶基本資料" sheetId="26" r:id="rId1"/>
@@ -1803,7 +1803,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2033,7 +2033,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2443,7 +2443,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Specification file/銀行/個金行銷部/華南銀行-個金行銷部-房貸API欄位輸出文件_v2.xlsx
+++ b/Specification file/銀行/個金行銷部/華南銀行-個金行銷部-房貸API欄位輸出文件_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2235" windowWidth="38400" windowHeight="23535" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="2235" windowWidth="38400" windowHeight="23535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="房貸申請客戶基本資料" sheetId="26" r:id="rId1"/>
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">房屋貸款條件!$A$1:$G$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">房貸申請客戶基本資料!$A$1:$G$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">建物擔保狀況!$A$1:$G$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">建物擔保狀況!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="158">
   <si>
     <t>Field</t>
   </si>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>HNN000000，前面3位大寫字字母，後面6位數字，共20萬筆模擬資料可供參賽者查詢</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>請確認受益人編號格式</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1084,6 +1080,22 @@
   <si>
     <t>正擔保 60% 
 加強債權 40%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>請確認受益人編號格式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受益人編號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1359,7 +1371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,6 +1499,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,7 +1855,7 @@
     </row>
     <row r="2" spans="1:7" ht="174" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1846,21 +1864,21 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="315.75" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1869,21 +1887,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="363" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -1892,21 +1910,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="126.75" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -1915,21 +1933,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -1938,21 +1956,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="79.5" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1961,21 +1979,21 @@
         <v>4</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="95.25" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1984,39 +2002,39 @@
         <v>4</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="174" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="G9" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2051,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2069,53 +2087,53 @@
     </row>
     <row r="2" spans="1:7" ht="32.25" thickBot="1">
       <c r="A2" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="79.5" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" thickBot="1">
       <c r="A4" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>6</v>
@@ -2124,21 +2142,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>105</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="126.75" thickBot="1">
       <c r="A5" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>6</v>
@@ -2147,67 +2165,67 @@
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="126.75" thickBot="1">
       <c r="A6" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="G6" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="95.25" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>5</v>
@@ -2216,44 +2234,44 @@
         <v>4</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="63.75" thickBot="1">
       <c r="A9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>127</v>
-      </c>
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>5</v>
@@ -2262,21 +2280,21 @@
         <v>4</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48" thickBot="1">
       <c r="A11" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>6</v>
@@ -2285,21 +2303,21 @@
         <v>4</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="63.75" thickBot="1">
       <c r="A12" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>6</v>
@@ -2308,21 +2326,21 @@
         <v>4</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="63.75" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>6</v>
@@ -2331,21 +2349,21 @@
         <v>4</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.25" thickBot="1">
       <c r="A14" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>5</v>
@@ -2354,18 +2372,18 @@
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63.75" thickBot="1">
       <c r="A15" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>5</v>
@@ -2374,21 +2392,21 @@
         <v>4</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>59</v>
-      </c>
       <c r="G15" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48" thickBot="1">
       <c r="A16" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>6</v>
@@ -2397,21 +2415,21 @@
         <v>4</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32.25" thickBot="1">
       <c r="A17" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>6</v>
@@ -2420,13 +2438,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2441,10 +2459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2476,9 +2494,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>121</v>
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A2" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -2486,68 +2504,59 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="95.25" thickBot="1">
-      <c r="A3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>85</v>
+      <c r="D2" s="27"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>74</v>
+      <c r="G3" s="44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="95.25" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="363" thickBot="1">
+        <v>88</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -2556,21 +2565,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="142.5" thickBot="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="363" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -2579,21 +2588,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="63.75" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="142.5" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -2602,21 +2611,21 @@
         <v>4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="79.5" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63.75" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -2624,17 +2633,40 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="79.5" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>143</v>
+      <c r="G9" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Specification file/銀行/個金行銷部/華南銀行-個金行銷部-房貸API欄位輸出文件_v2.xlsx
+++ b/Specification file/銀行/個金行銷部/華南銀行-個金行銷部-房貸API欄位輸出文件_v2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38527D15-DD3C-E34D-B9D9-BC585BF8A548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2235" windowWidth="38400" windowHeight="23535" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="房貸申請客戶基本資料" sheetId="26" r:id="rId1"/>
@@ -325,9 +326,6 @@
   <si>
     <t>請確認違約金分佈</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>建物型態屬性</t>
   </si>
   <si>
     <t>請確認受顧客編碼格式</t>
@@ -682,31 +680,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄰近地區屬性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-建物地區屬性</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>請確認屋齡區間比例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1098,12 +1071,51 @@
     <t>受益人編號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>建物型態屬性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄰近地區屬性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建物地區屬性</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,6 +1216,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BiauKai"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BiauKai"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
@@ -1371,7 +1405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1507,10 +1541,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1537,7 +1580,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1815,25 +1858,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="83.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="29.796875" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="83.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1853,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="174" thickBot="1">
+    <row r="2" spans="1:7" ht="166" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -1870,13 +1913,13 @@
         <v>27</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="315.75" thickBot="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="301" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1896,10 +1939,10 @@
         <v>29</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="363" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="343" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1913,16 +1956,16 @@
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="126.75" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="121" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1933,19 +1976,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1962,13 +2005,13 @@
         <v>31</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="79.5" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="76" thickBot="1">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>32</v>
@@ -1988,10 +2031,10 @@
         <v>33</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="95.25" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="91" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -2011,30 +2054,30 @@
         <v>13</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="174" thickBot="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="166" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="G9" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2045,27 +2088,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="25"/>
-    <col min="4" max="4" width="46.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="3" width="9.19921875" style="25"/>
+    <col min="4" max="4" width="46.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.796875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="46.796875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2085,32 +2128,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1">
+    <row r="2" spans="1:7" ht="31" thickBot="1">
       <c r="A2" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="79.5" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="91" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>11</v>
@@ -2119,19 +2162,19 @@
         <v>4</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="48" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="46" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -2142,21 +2185,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="126.75" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="121" thickBot="1">
       <c r="A5" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>6</v>
@@ -2174,12 +2217,12 @@
         <v>10</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="126.75" thickBot="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="121" thickBot="1">
       <c r="A6" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>35</v>
@@ -2197,15 +2240,15 @@
         <v>47</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="48" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="46" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>4</v>
@@ -2220,12 +2263,12 @@
         <v>10</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="95.25" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="91" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>5</v>
@@ -2243,15 +2286,15 @@
         <v>50</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="63.75" thickBot="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61" thickBot="1">
       <c r="A9" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>4</v>
@@ -2266,12 +2309,12 @@
         <v>10</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="48" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>5</v>
@@ -2280,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>52</v>
@@ -2289,12 +2332,12 @@
         <v>53</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="48" thickBot="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="46" thickBot="1">
       <c r="A11" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>6</v>
@@ -2312,12 +2355,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="63.75" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="61" thickBot="1">
       <c r="A12" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>6</v>
@@ -2326,21 +2369,21 @@
         <v>4</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="63.75" thickBot="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="61" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>6</v>
@@ -2349,19 +2392,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31" thickBot="1">
       <c r="A14" s="31" t="s">
         <v>41</v>
       </c>
@@ -2372,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>55</v>
@@ -2381,9 +2424,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="63.75" thickBot="1">
+    <row r="15" spans="1:7" ht="61" thickBot="1">
       <c r="A15" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>5</v>
@@ -2401,12 +2444,12 @@
         <v>58</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="46" thickBot="1">
       <c r="A16" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>6</v>
@@ -2415,19 +2458,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="32.25" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31" thickBot="1">
       <c r="A17" s="31" t="s">
         <v>43</v>
       </c>
@@ -2438,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>60</v>
@@ -2455,26 +2498,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.796875" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="33.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2494,9 +2537,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="25" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="16" thickBot="1">
       <c r="A2" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -2508,9 +2551,9 @@
       <c r="E2" s="45"/>
       <c r="F2" s="46"/>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1">
+    <row r="3" spans="1:7" ht="31" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2519,21 +2562,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="95.25" thickBot="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="91" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>11</v>
@@ -2542,21 +2585,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="35" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -2565,21 +2608,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="G5" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="363" thickBot="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="343" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -2587,22 +2630,22 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="142.5" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="136" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -2610,22 +2653,22 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>61</v>
+      <c r="D7" s="47" t="s">
+        <v>156</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="G7" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="63.75" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="61" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -2633,22 +2676,22 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>100</v>
+      <c r="D8" s="48" t="s">
+        <v>157</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="79.5" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="76" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -2656,17 +2699,17 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="G9" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
